--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,88 +40,94 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -130,121 +136,130 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>important</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
+    <t>give</t>
   </si>
   <si>
     <t>share</t>
@@ -253,49 +268,40 @@
     <t>alert</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>health</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -667,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -828,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -878,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -928,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6986301369863014</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.68</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1096,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6086956521739131</v>
+        <v>0.6883561643835616</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1170,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,7 +1184,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5806451612903226</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -1196,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.7916666666666666</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1220,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,10 +1237,10 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,31 +1252,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L13">
+        <v>64</v>
+      </c>
+      <c r="M13">
+        <v>64</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L13">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>45</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5333333333333333</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K14">
         <v>0.7676056338028169</v>
@@ -1328,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4736842105263158</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,16 +1355,16 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4193548387096774</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1396,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4166666666666667</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1446,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.7450980392156863</v>
+        <v>0.7375</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1470,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1478,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1520,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1528,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.358974358974359</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1546,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.73125</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1570,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3585271317829458</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C20">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1596,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.7272727272727273</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1620,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3513513513513514</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1646,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>328</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7169811320754716</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L21">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M21">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1670,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1678,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3355704697986577</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.7021276595744681</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1720,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1728,13 +1734,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3333333333333333</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1778,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2941176470588235</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1796,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.6388888888888888</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1820,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,13 +1834,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.291005291005291</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1846,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25">
         <v>0.625</v>
@@ -1878,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.288135593220339</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1896,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6214099216710183</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L26">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M26">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1920,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1928,13 +1934,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2857142857142857</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1946,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.5676470588235294</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L27">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1970,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>147</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,13 +1984,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2711864406779661</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1996,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.5555555555555556</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2020,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2028,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1904761904761905</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2046,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.54</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2078,13 +2084,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1888888888888889</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2096,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5393258426966292</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L30">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="M30">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2128,13 +2134,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.09115281501340483</v>
+        <v>0.1626984126984127</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2146,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>339</v>
+        <v>211</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.5389830508474577</v>
+        <v>0.54</v>
       </c>
       <c r="L31">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2170,21 +2176,45 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>136</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1625</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>67</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>0.5333333333333333</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,21 +2226,45 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.07774798927613941</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>344</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K33">
-        <v>0.5151515151515151</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2222,99 +2276,99 @@
         <v>0</v>
       </c>
       <c r="Q33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L34">
+        <v>36</v>
+      </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="L35">
+        <v>32</v>
+      </c>
+      <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>0.488135593220339</v>
+      </c>
+      <c r="L36">
+        <v>144</v>
+      </c>
+      <c r="M36">
+        <v>144</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L37">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34">
-        <v>0.5</v>
-      </c>
-      <c r="L34">
-        <v>20</v>
-      </c>
-      <c r="M34">
-        <v>20</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>0.4931506849315068</v>
-      </c>
-      <c r="L35">
-        <v>36</v>
-      </c>
-      <c r="M35">
-        <v>36</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36">
-        <v>0.4518828451882845</v>
-      </c>
-      <c r="L36">
-        <v>108</v>
-      </c>
-      <c r="M36">
-        <v>108</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37">
-        <v>0.4307692307692308</v>
-      </c>
-      <c r="L37">
-        <v>28</v>
-      </c>
       <c r="M37">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2326,15 +2380,15 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K38">
-        <v>0.4117647058823529</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L38">
         <v>14</v>
@@ -2352,119 +2406,119 @@
         <v>0</v>
       </c>
       <c r="Q38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.4476987447698745</v>
+      </c>
+      <c r="L39">
+        <v>107</v>
+      </c>
+      <c r="M39">
+        <v>107</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0.4375</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L41">
+        <v>31</v>
+      </c>
+      <c r="M41">
+        <v>31</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39">
-        <v>0.40625</v>
-      </c>
-      <c r="L39">
-        <v>26</v>
-      </c>
-      <c r="M39">
-        <v>26</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40">
-        <v>0.4</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41">
-        <v>0.3953488372093023</v>
-      </c>
-      <c r="L41">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>17</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42">
-        <v>0.3857142857142857</v>
-      </c>
-      <c r="L42">
-        <v>27</v>
-      </c>
-      <c r="M42">
-        <v>27</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
+    <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K43">
-        <v>0.3333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="L43">
         <v>14</v>
@@ -2482,12 +2536,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K44">
         <v>0.3278688524590164</v>
@@ -2511,18 +2565,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="10:17">
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K45">
-        <v>0.3205128205128205</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2534,74 +2588,74 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K46">
-        <v>0.1181102362204724</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="L48">
         <v>15</v>
       </c>
-      <c r="M46">
+      <c r="M48">
         <v>15</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K47">
-        <v>0.1145038167938931</v>
-      </c>
-      <c r="L47">
-        <v>15</v>
-      </c>
-      <c r="M47">
-        <v>15</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K48">
-        <v>0.1124401913875598</v>
-      </c>
-      <c r="L48">
-        <v>47</v>
-      </c>
-      <c r="M48">
-        <v>47</v>
-      </c>
       <c r="N48">
         <v>1</v>
       </c>
@@ -2612,21 +2666,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>371</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.07932692307692307</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2638,47 +2692,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>383</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.07046979865771812</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="L50">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>831</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.06976744186046512</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2690,21 +2744,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>200</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.05198776758409786</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2716,21 +2770,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>310</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.04439511653718091</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2742,47 +2796,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>861</v>
+        <v>828</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.02760879737950398</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L54">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N54">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>2078</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.02674897119341564</v>
+        <v>0.04994450610432852</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2794,137 +2848,137 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>473</v>
+        <v>856</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.02537485582468281</v>
+        <v>0.03697996918335902</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>845</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.02314814814814815</v>
+        <v>0.02306805074971165</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>633</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.0134297520661157</v>
+        <v>0.0205607476635514</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>955</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K59">
-        <v>0.01160167579761521</v>
+        <v>0.01387096774193548</v>
       </c>
       <c r="L59">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N59">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="O59">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>3067</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K60">
-        <v>0.005325814536340852</v>
+        <v>0.004380475594493116</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N60">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="O60">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>3175</v>
+        <v>3182</v>
       </c>
     </row>
   </sheetData>
